--- a/Data/Transitions/19341938Translation.xlsx
+++ b/Data/Transitions/19341938Translation.xlsx
@@ -100,7 +100,7 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
@@ -145,7 +145,7 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9908461157842652}</t>
+    <t>{71.0: 0.9911641791044776}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
@@ -157,13 +157,13 @@
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.052093120367470505}</t>
+    <t>{75.0: 1.0, 917.0: 0.05246556618652087}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
@@ -175,7 +175,7 @@
     <t>{80.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 1.0, 172.0: 0.0017468944099378882}</t>
+    <t>{81.0: 1.0, 172.0: 0.0017377872176095772}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -187,7 +187,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9990717103736366}</t>
+    <t>{85.0: 0.9990749306197965}</t>
   </si>
   <si>
     <t>{86.0: 1.0}</t>
@@ -205,10 +205,10 @@
     <t>{90.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 1.0, 92.0: 0.0019358061696015986}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9596602972399151}</t>
+    <t>{91.0: 1.0, 92.0: 0.0019024240564590364}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9603559374041117}</t>
   </si>
   <si>
     <t>{93.0: 1.0}</t>
@@ -244,13 +244,13 @@
     <t>{103.0: 1.0}</t>
   </si>
   <si>
-    <t>{104.0: 1.0, 92.0: 0.03840389659048333}</t>
+    <t>{104.0: 1.0, 92.0: 0.03774163853942927}</t>
   </si>
   <si>
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0, 543.0: 0.0010925976509150504}</t>
+    <t>{107.0: 1.0, 543.0: 0.0011476115334959117}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -271,10 +271,10 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 1.0, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9989884514878192}</t>
+    <t>{142.0: 1.0, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9989927816014773}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
@@ -313,13 +313,13 @@
     <t>{165.0: 1.0}</t>
   </si>
   <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0}</t>
   </si>
   <si>
-    <t>{168.0: 0.9984929829518696}</t>
+    <t>{168.0: 0.9984805318138652}</t>
   </si>
   <si>
     <t>{169.0: 1.0}</t>
@@ -331,13 +331,13 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{172.0: 0.9982531055900621}</t>
-  </si>
-  <si>
-    <t>{173.0: 1.0, 404.0: 0.0029191753329684362}</t>
-  </si>
-  <si>
-    <t>{174.0: 1.0, 502.0: 0.006638636866563399}</t>
+    <t>{172.0: 0.9982622127823905}</t>
+  </si>
+  <si>
+    <t>{173.0: 1.0, 404.0: 0.002955665024630542}</t>
+  </si>
+  <si>
+    <t>{174.0: 1.0, 502.0: 0.0066181336863004635}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -361,10 +361,10 @@
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9977983777520278}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 182.0: 0.0012746234067207416}</t>
+    <t>{182.0: 0.9977896696137738}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 182.0: 0.0012796649604467194}</t>
   </si>
   <si>
     <t>{184.0: 1.0}</t>
@@ -373,13 +373,13 @@
     <t>{185.0: 1.0}</t>
   </si>
   <si>
-    <t>{202.0: 0.9947134446713926}</t>
+    <t>{202.0: 0.994717887154862}</t>
   </si>
   <si>
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9989618864007118}</t>
+    <t>{204.0: 0.9989611160581775}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -388,7 +388,7 @@
     <t>{206.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 1.0, 477.0: 0.07756537024829707}</t>
+    <t>{207.0: 1.0, 477.0: 0.07758241758241759}</t>
   </si>
   <si>
     <t>{208.0: 1.0}</t>
@@ -430,7 +430,7 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -442,7 +442,7 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -478,10 +478,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8194220168160811}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18057798318391893}</t>
+    <t>{240.0: 1.0, 241.0: 0.8102185762263944}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.18978142377360568}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -499,7 +502,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9057835330760996}</t>
+    <t>{249.0: 0.904978210564596}</t>
   </si>
   <si>
     <t>{250.0: 1.0}</t>
@@ -577,7 +580,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9623828835127954}</t>
+    <t>{277.0: 0.9623512946116165}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -592,7 +595,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 1.0, 182.0: 0.0009269988412514484}</t>
+    <t>{282.0: 1.0, 182.0: 0.0009306654257794323}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -637,10 +640,10 @@
     <t>{296.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9935198943371306}</t>
-  </si>
-  <si>
-    <t>{298.0: 1.0, 297.0: 0.005448241703813769}</t>
+    <t>{297.0: 0.9934830434602133}</t>
+  </si>
+  <si>
+    <t>{298.0: 1.0, 297.0: 0.005479224606699597}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -655,7 +658,7 @@
     <t>{302.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 1.0, 144.0: 0.00101154851218073}</t>
+    <t>{303.0: 1.0, 144.0: 0.0010072183985227463}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -673,7 +676,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -694,7 +697,7 @@
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009153884215734785}</t>
+    <t>{317.0: 1.0, 71.0: 0.008835820895522388}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -703,9 +706,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -721,10 +721,10 @@
     <t>{402.0: 1.0}</t>
   </si>
   <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.9970808246670315}</t>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.9970443349753695}</t>
   </si>
   <si>
     <t>{405.0: 1.0}</t>
@@ -736,7 +736,7 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -754,7 +754,7 @@
     <t>{414.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.03761711648720459}</t>
+    <t>{415.0: 1.0, 277.0: 0.03764870538838348}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -778,13 +778,13 @@
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174}</t>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
+    <t>{426.0: 0.9602742133942697}</t>
   </si>
   <si>
     <t>{428.0: 1.0}</t>
@@ -793,10 +793,10 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 431.0: 0.00019022256039566293}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.9998097774396043}</t>
+    <t>{430.0: 1.0, 431.0: 0.00012773023374632777}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.9998722697662537}</t>
   </si>
   <si>
     <t>{432.0: 1.0}</t>
@@ -841,13 +841,13 @@
     <t>{476.0: 1.0}</t>
   </si>
   <si>
-    <t>{477.0: 0.9224346297517029}</t>
+    <t>{477.0: 0.9224175824175824}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 1.0, 942.0: 0.009202453987730062}</t>
+    <t>{479.0: 1.0, 942.0: 0.009213051823416507}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -877,10 +877,10 @@
     <t>{488.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 1.0, 935.0: 0.005207010414020828}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
+    <t>{489.0: 1.0, 935.0: 0.005155287312963662}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
@@ -907,19 +907,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9598576230966976}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.9171511627906976}</t>
+    <t>{499.0: 0.9608410493827161}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.9184549356223176}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9933613631334366}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{502.0: 0.9933818663136995}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -955,7 +955,7 @@
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
+    <t>{536.0: 0.5216757544674189}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -973,7 +973,7 @@
     <t>{542.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.9989074023490849}</t>
+    <t>{543.0: 0.998852388466504}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -1027,7 +1027,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9980719794344473, 752.0: 0.04920514761544285}</t>
+    <t>{580.0: 0.9981181109418407, 752.0: 0.04937333839726547}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -1042,7 +1042,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928}</t>
+    <t>{585.0: 0.9874713727603395}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1066,7 +1066,7 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 1.0, 686.0: 0.009832174944905916}</t>
+    <t>{593.0: 1.0, 686.0: 0.009728279100972828}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -1075,7 +1075,7 @@
     <t>{596.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.9973904244554508}</t>
+    <t>{597.0: 0.9973572083490643}</t>
   </si>
   <si>
     <t>{598.0: 1.0}</t>
@@ -1129,7 +1129,7 @@
     <t>{614.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.9872775882732553}</t>
+    <t>{615.0: 0.9874499818115678}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1141,7 +1141,7 @@
     <t>{618.0: 1.0}</t>
   </si>
   <si>
-    <t>{619.0: 1.0, 861.0: 0.015839714675338297}</t>
+    <t>{619.0: 1.0, 861.0: 0.015856347789562113}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1186,7 +1186,7 @@
     <t>{633.0: 1.0}</t>
   </si>
   <si>
-    <t>{634.0: 0.8069981583793738}</t>
+    <t>{634.0: 0.8128571428571428}</t>
   </si>
   <si>
     <t>{635.0: 1.0}</t>
@@ -1219,7 +1219,7 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.990167825055094}</t>
+    <t>{686.0: 0.9902717208990272}</t>
   </si>
   <si>
     <t>{687.0: 1.0}</t>
@@ -1246,7 +1246,7 @@
     <t>{694.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 1.0, 857.0: 0.0024748871742611735}</t>
+    <t>{695.0: 1.0, 857.0: 0.0024741667879493523}</t>
   </si>
   <si>
     <t>{696.0: 1.0}</t>
@@ -1264,7 +1264,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8134970424807313}</t>
+    <t>{702.0: 0.8133632286995516}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
@@ -1348,7 +1348,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.9507948523845572, 580.0: 0.0019280205655526992}</t>
+    <t>{752.0: 0.9506266616027346, 580.0: 0.0018818890581593333}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1435,7 +1435,7 @@
     <t>{781.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 1.0, 168.0: 0.001507017048130357, 930.0: 0.0003687315634218289}</t>
+    <t>{782.0: 1.0, 168.0: 0.0015194681861348527, 930.0: 0.000380331431676175}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1450,7 +1450,7 @@
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 1.0, 500.0: 0.08284883720930232}</t>
+    <t>{787.0: 1.0, 500.0: 0.0815450643776824}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
@@ -1471,13 +1471,13 @@
     <t>{834.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 1.0, 836.0: 0.0014807502467917078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9985192497532083}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833}</t>
+    <t>{835.0: 1.0, 836.0: 0.0014044943820224719}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9985955056179775}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811}</t>
   </si>
   <si>
     <t>{838.0: 1.0}</t>
@@ -1522,13 +1522,13 @@
     <t>{851.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 1.0, 922.0: 0.0022135194959986377}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 202.0: 0.005286555328607473, 680.0: 0.002957121734844751}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 1.0, 922.0: 0.0022859152452962897}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 202.0: 0.005282112845138055, 680.0: 0.002957121734844751}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1537,7 +1537,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9975251128257389}</t>
+    <t>{857.0: 0.9975258332120507}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1549,7 +1549,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9841602853246617, 490.0: 0.04730928444707274}</t>
+    <t>{861.0: 0.9841436522104379, 490.0: 0.04747774480712166}</t>
   </si>
   <si>
     <t>{862.0: 1.0}</t>
@@ -1582,7 +1582,7 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
@@ -1597,7 +1597,7 @@
     <t>{897.0: 1.0}</t>
   </si>
   <si>
-    <t>{905.0: 1.0, 499.0: 0.04014237690330235}</t>
+    <t>{905.0: 1.0, 499.0: 0.03915895061728395}</t>
   </si>
   <si>
     <t>{906.0: 1.0}</t>
@@ -1627,13 +1627,13 @@
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.9479068796325295}</t>
+    <t>{917.0: 0.9475344338134791}</t>
   </si>
   <si>
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1642,7 +1642,7 @@
     <t>{921.0: 1.0}</t>
   </si>
   <si>
-    <t>{922.0: 0.9977864805040013}</t>
+    <t>{922.0: 0.9977140847547037}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1663,10 +1663,10 @@
     <t>{928.0: 1.0}</t>
   </si>
   <si>
-    <t>{929.0: 0.9982030043520989, 930.0: 0.0028606300209631807}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.996770638415615, 929.0: 0.0017969956479011652}</t>
+    <t>{929.0: 0.9981531979973741, 930.0: 0.0029511487673002834}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.9966685198010236, 929.0: 0.0018468020026259217}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1675,13 +1675,13 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 249.0: 0.09421646692390045}</t>
+    <t>{933.0: 1.0, 249.0: 0.09502178943540394}</t>
   </si>
   <si>
     <t>{934.0: 1.0}</t>
   </si>
   <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
@@ -1702,10 +1702,10 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.19300184162062614}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.18714285714285714}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
@@ -1714,7 +1714,7 @@
     <t>{971.0: 1.0}</t>
   </si>
   <si>
-    <t>{972.0: 1.0, 615.0: 0.012722411726744723}</t>
+    <t>{972.0: 1.0, 615.0: 0.012550018188432157}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -1726,7 +1726,7 @@
     <t>{975.0: 1.0}</t>
   </si>
   <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
@@ -1762,37 +1762,37 @@
     <t>{71.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 0.8852873563218391, 917.0: 0.11471264367816092}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100288, 85.0: 0.0005223295899712719}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.9985303723056824, 172.0: 0.0014696276943174395}</t>
+    <t>{75.0: 0.8878903617164682, 917.0: 0.11210963828353179}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613506, 85.0: 0.0005307151386493299}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9985291714332409, 172.0: 0.0014708285667592743}</t>
   </si>
   <si>
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 0.9998846584588138, 92.0: 0.00011534154118623194}</t>
+    <t>{91.0: 0.9998846584588138, 92.0: 0.00011534154118623197}</t>
   </si>
   <si>
     <t>{92.0: 1.0}</t>
   </si>
   <si>
-    <t>{104.0: 0.8253337120136325, 92.0: 0.17466628798636752}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.9991815856777494, 543.0: 0.0008184143222506395}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273635}</t>
+    <t>{104.0: 0.8344103392568659, 92.0: 0.16558966074313408}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.9991869092387435, 543.0: 0.0008130907612562254}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.9847119224187108, 44.0: 0.015288077581289217}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589457, 893.0: 0.0007695267410542517}</t>
+    <t>{166.0: 0.9992208804051422, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{168.0: 1.0}</t>
@@ -1801,7 +1801,7 @@
     <t>{172.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.9936051159072742, 404.0: 0.006394884092725819}</t>
+    <t>{173.0: 0.9936119244077721, 404.0: 0.006388075592227841}</t>
   </si>
   <si>
     <t>{174.0: 0.9852869053457577, 502.0: 0.014713094654242276}</t>
@@ -1810,7 +1810,7 @@
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{183.0: 0.9962354551676933, 182.0: 0.0037645448323066393}</t>
+    <t>{183.0: 0.9964005235602094, 182.0: 0.003599476439790576}</t>
   </si>
   <si>
     <t>{202.0: 1.0}</t>
@@ -1819,13 +1819,13 @@
     <t>{204.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 0.4623000761614623, 477.0: 0.5376999238385377}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345011, 490.0: 0.002764034691410512, 503.0: 0.15558740177408845}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.9998191354675349, 297.0: 0.00018086453246518358}</t>
+    <t>{207.0: 0.4480062548866302, 477.0: 0.5519937451133698}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.8413236115648752, 490.0: 0.002769789667703293, 503.0: 0.1559065987674213}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.9998209810239885, 297.0: 0.00017901897601145723}</t>
   </si>
   <si>
     <t>{240.0: 0.23802619996893284, 241.0: 0.7619738000310672}</t>
@@ -1840,22 +1840,22 @@
     <t>{277.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 0.996816553919618, 182.0: 0.003183446080382013}</t>
+    <t>{282.0: 0.9967186218211649, 182.0: 0.0032813781788351114}</t>
   </si>
   <si>
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9860774179938825, 297.0: 0.013922582006117498}</t>
-  </si>
-  <si>
-    <t>{303.0: 0.997696737044146, 144.0: 0.0023032629558541267}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9257801422662857, 426.0: 0.07314326591581212, 204.0: 0.001076591817902184}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452712, 71.0: 0.017762842054728757}</t>
+    <t>{298.0: 0.9860788863109049, 297.0: 0.013921113689095127}</t>
+  </si>
+  <si>
+    <t>{303.0: 0.9976869699306091, 144.0: 0.002313030069390902}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9281137216879632, 426.0: 0.070862736858608, 204.0: 0.0010235414534288639}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534321, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
@@ -1864,19 +1864,19 @@
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
-  </si>
-  <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.1268867924528302}</t>
-  </si>
-  <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.0479628674574523}</t>
+    <t>{408.0: 0.9431382570917455, 403.0: 0.056861742908254534}</t>
+  </si>
+  <si>
+    <t>{415.0: 0.8729333963155409, 277.0: 0.12706660368445913}</t>
+  </si>
+  <si>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.047888774459320285}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 0.9998131190431695, 431.0: 0.00018688095683049897}</t>
+    <t>{430.0: 0.9996432393863718, 431.0: 0.00035676061362825543}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -1885,13 +1885,13 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.977859778597786, 942.0: 0.02214022140221402}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923824, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869779, 503.0: 0.022113022113022112}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.022577610536218252}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066561, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294479, 503.0: 0.022085889570552148}</t>
   </si>
   <si>
     <t>{499.0: 1.0}</t>
@@ -1912,13 +1912,13 @@
     <t>{543.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9881828924643214, 752.0: 0.011817107535678575}</t>
+    <t>{580.0: 0.9884629037983671, 752.0: 0.011537096201632943}</t>
   </si>
   <si>
     <t>{585.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9945545019247017, 686.0: 0.005445498075298094}</t>
+    <t>{593.0: 0.99456419868791, 686.0: 0.005435801312089972}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1927,7 +1927,7 @@
     <t>{615.0: 1.0}</t>
   </si>
   <si>
-    <t>{619.0: 0.9785175700668658, 861.0: 0.021482429933134158}</t>
+    <t>{619.0: 0.978456270509345, 861.0: 0.021543729490654872}</t>
   </si>
   <si>
     <t>{634.0: 1.0}</t>
@@ -1939,22 +1939,22 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 0.9938114306516198, 857.0: 0.006188569348380051}</t>
+    <t>{695.0: 0.9937865497076025, 857.0: 0.0062134502923976605}</t>
   </si>
   <si>
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.9917094354520332, 580.0: 0.008290564547966837}</t>
-  </si>
-  <si>
-    <t>{782.0: 0.9974744701877677, 168.0: 0.001756890304161634, 930.0: 0.0007686395080707148}</t>
-  </si>
-  <si>
-    <t>{787.0: 0.8357348703170029, 500.0: 0.16426512968299709}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9991787571858747, 836.0: 0.0008212428141253764}</t>
+    <t>{752.0: 0.9916798732171157, 580.0: 0.00832012678288431}</t>
+  </si>
+  <si>
+    <t>{782.0: 0.9974866134848652, 168.0: 0.001748442793137362, 930.0: 0.0007649437219975958}</t>
+  </si>
+  <si>
+    <t>{787.0: 0.8360891445003593, 500.0: 0.16391085549964055}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9991787571858747, 836.0: 0.0008212428141253763}</t>
   </si>
   <si>
     <t>{836.0: 1.0}</t>
@@ -1963,19 +1963,19 @@
     <t>{837.0: 0.872876492194674, 536.0: 0.127123507805326}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290923, 922.0: 0.01008533747090768}</t>
+    <t>{852.0: 0.9898358092259578, 922.0: 0.010164190774042221}</t>
   </si>
   <si>
     <t>{853.0: 0.9992733086258266, 202.0: 0.000639488409272582, 680.0: 8.720296490080663e-05}</t>
   </si>
   <si>
-    <t>{854.0: 0.9973455598455598, 976.0: 0.0026544401544401543}</t>
+    <t>{854.0: 0.9973352713178294, 976.0: 0.0026647286821705426}</t>
   </si>
   <si>
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9915451278799408, 490.0: 0.008454872120059184}</t>
+    <t>{861.0: 0.991536182818451, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{893.0: 1.0}</t>
@@ -1987,19 +1987,19 @@
     <t>{917.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9939789262418465, 297.0: 0.006021073758153537}</t>
+    <t>{919.0: 0.9941104294478528, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{929.0: 0.9992411040530665, 930.0: 0.0007588959469334982}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.9932432432432432, 929.0: 0.006756756756756757}</t>
-  </si>
-  <si>
-    <t>{933.0: 0.8788491693144441, 249.0: 0.12115083068555589}</t>
+    <t>{929.0: 0.9992200476637538, 930.0: 0.0007799523362461183}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.9930302205281786, 929.0: 0.006969779471821399}</t>
+  </si>
+  <si>
+    <t>{933.0: 0.8793518814625307, 249.0: 0.12064811853746933}</t>
   </si>
   <si>
     <t>{935.0: 1.0}</t>
@@ -2008,10 +2008,10 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.9131443726172717, 634.0: 0.08685562738272833}</t>
-  </si>
-  <si>
-    <t>{972.0: 0.9541375872382851, 615.0: 0.045862412761714856}</t>
+    <t>{943.0: 0.914935064935065, 634.0: 0.08506493506493505}</t>
+  </si>
+  <si>
+    <t>{972.0: 0.9537688442211055, 615.0: 0.04623115577889446}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4096,7 +4096,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4129,29 +4129,29 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>606</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>606</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4415,29 +4415,29 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>607</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>607</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4470,29 +4470,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>608</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>608</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4635,40 +4635,40 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>609</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>610</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4701,29 +4701,29 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>611</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>214</v>
+        <v>611</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4756,7 +4756,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4767,29 +4767,29 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>612</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>220</v>
+        <v>612</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4811,7 +4811,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4833,7 +4833,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4844,29 +4844,29 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>613</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>227</v>
+        <v>613</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
